--- a/biology/Zoologie/Anabate_rougequeue/Anabate_rougequeue.xlsx
+++ b/biology/Zoologie/Anabate_rougequeue/Anabate_rougequeue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anabacerthia ruficaudata
 L'Anabate rougequeue (Anabacerthia ruficaudata) est une espèce d'oiseaux de la famille des Furnariidae.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Anabacerthia ruficaudata a été décrite pour la première fois en 1838 par les naturalistes français Alcide Dessalines d'Orbigny (1802-1857) et Frédéric de Lafresnaye (1783-1861) sous le protonyme d’Anabates ruficaudatus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Anabacerthia ruficaudata a été décrite pour la première fois en 1838 par les naturalistes français Alcide Dessalines d'Orbigny (1802-1857) et Frédéric de Lafresnaye (1783-1861) sous le protonyme d’Anabates ruficaudatus.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers le Nord de l'Amérique du Sud, du Venezuela à la Bolivie.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Anabacerthia ruficaudata ruficaudata (d'Orbigny &amp; Lafresnaye, 1838)
 sous-espèce Anabacerthia ruficaudata subflavescens (Cabanis, 1873)
 sous-espèce Anabacerthia ruficaudata flavipectus (Phelps &amp; Gilliard, 1941)</t>
